--- a/docs/videos_transcrever.xlsx
+++ b/docs/videos_transcrever.xlsx
@@ -67,12 +67,15 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
@@ -276,95 +279,95 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C5"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="41.49" customWidth="1" style="2" min="1" max="1"/>
-    <col width="62.6" customWidth="1" style="2" min="2" max="2"/>
+    <col width="41.49" customWidth="1" style="3" min="1" max="1"/>
+    <col width="62.6" customWidth="1" style="3" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" customHeight="1" s="3">
-      <c r="A1" s="2" t="inlineStr">
+    <row r="1" ht="12.75" customHeight="1" s="4">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>URL_VIDEO</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>NOME_VIDEO</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>FEITO</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="12.75" customHeight="1" s="3">
-      <c r="A2" s="2" t="inlineStr">
+    <row r="2" ht="12.75" customHeight="1" s="4">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>https://www.youtube.com/watch?v=bRKP73xnf30</t>
         </is>
       </c>
-      <c r="B2" s="2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>Ainda Vale a Pena Ser FREELANCER? PRÓS E CONTRAS</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="12.75" customHeight="1" s="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=bRKP73xnf31</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
+    <row r="3" ht="12.75" customHeight="1" s="4">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=bRKP73xnf30</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>Ainda Vale a Pena Ser FREELANCER? PRÓS E CONTRAS</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="12.75" customHeight="1" s="3">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=bRKP73xnf32</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
+    <row r="4" ht="12.75" customHeight="1" s="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=bRKP73xnf30</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>Ainda Vale a Pena Ser FREELANCER? PRÓS E CONTRAS</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
+      <c r="C4" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="12.75" customHeight="1" s="3">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>https://www.youtube.com/watch?v=bRKP73xnf33</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
+    <row r="5" ht="12.75" customHeight="1" s="4">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=bRKP73xnf30</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>Ainda Vale a Pena Ser FREELANCER? PRÓS E CONTRAS</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
+      <c r="C5" s="5" t="inlineStr">
         <is>
           <t>X</t>
         </is>

--- a/docs/videos_transcrever.xlsx
+++ b/docs/videos_transcrever.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t xml:space="preserve">URL_VIDEO</t>
   </si>
@@ -31,10 +31,16 @@
     <t xml:space="preserve">FEITO</t>
   </si>
   <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=bRKP73xnf30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ainda Vale a Pena Ser FREELANCER? PRÓS E CONTRAS</t>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=8MLqI-8xNcM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 11 bloqueando pcs fora dos requisitos mínimos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.youtube.com/watch?v=hAeJDW281vY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Porque as pessoas gostam mais do Windows antigos?</t>
   </si>
 </sst>
 </file>
@@ -44,7 +50,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -65,6 +71,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -109,7 +122,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -120,6 +133,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -245,16 +262,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="41.49"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="62.6"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="87.7"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -278,6 +295,12 @@
       <c r="C2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="C3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -285,6 +308,9 @@
     </row>
     <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="C5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="3"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/docs/videos_transcrever.xlsx
+++ b/docs/videos_transcrever.xlsx
@@ -1,95 +1,62 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha2" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Planilha2" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t xml:space="preserve">URL_VIDEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOME_VIDEO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FEITO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=8MLqI-8xNcM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows 11 bloqueando pcs fora dos requisitos mínimos</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.youtube.com/watch?v=hAeJDW281vY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Porque as pessoas gostam mais do Windows antigos?</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+      <sz val="10"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <charset val="1"/>
+      <family val="2"/>
+      <color rgb="FF0000FF"/>
       <sz val="10"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -97,57 +64,116 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -258,67 +284,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2:C3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.75" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="43.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="87.7"/>
+    <col width="43.31" customWidth="1" style="4" min="1" max="1"/>
+    <col width="87.7" customWidth="1" style="4" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C4" s="2"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C5" s="2"/>
-    </row>
-    <row r="6" customFormat="false" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="3"/>
+    <row r="1" ht="12.75" customHeight="1" s="5">
+      <c r="A1" s="4" t="inlineStr">
+        <is>
+          <t>URL_VIDEO</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>NOME_VIDEO</t>
+        </is>
+      </c>
+      <c r="C1" s="4" t="inlineStr">
+        <is>
+          <t>FEITO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="12.75" customHeight="1" s="5">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=8MLqI-8xNcM</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Windows 11 bloqueando pcs fora dos requisitos mínimos</t>
+        </is>
+      </c>
+      <c r="C2" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" ht="12.75" customHeight="1" s="5">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=SD0P_DBuVHU</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
+        <is>
+          <t>DRACONIA#22 | PLANEJAMENTO DE MOBILIDADE URBANA [Cities: Skylines 2] feat.‪@OctopolisGaming‬</t>
+        </is>
+      </c>
+      <c r="C3" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="12.75" customHeight="1" s="5">
+      <c r="A4" s="4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=xBEhkH0niJo</t>
+        </is>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>VANILLA #47 | CAMPUS UNIVERSITÁRIO INTEGRADO A CIDADE [Cities: Skylines - Gameplay PT-BR]</t>
+        </is>
+      </c>
+      <c r="C4" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1" s="5">
+      <c r="A5" s="4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=iXU9e5FAZAY</t>
+        </is>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>LANÇADO DEEPIN 23!!! O LINUX MAIS LINDO DE TODOS, SUPERANDO MAC OS E WINDOWS 11.</t>
+        </is>
+      </c>
+      <c r="C5" s="6" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1" s="5">
+      <c r="A6" s="4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=Cw8A_yXR1M0</t>
+        </is>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Qual a melhor configuração para um PC para rodar IAs?</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1" s="5">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>https://www.youtube.com/watch?v=6e5bSJ1wwS8</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>ALTA PROCURA INCENTIVA NOVO BAIRRO! 🏣 - Cities Skylines #7</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1" s="5">
+      <c r="B8" s="7" t="n"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="B3" display="DRACONIA#22 | PLANEJAMENTO DE MOBILIDADE URBANA [Cities: Skylines 2] feat.‪@OctopolisGaming‬" r:id="rId1"/>
+  </hyperlinks>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 Página &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>